--- a/old_database/crypto/fastqFiles/fastq_869.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_869.xlsx
@@ -37,7 +37,7 @@
     <t>03.13.13</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_869</t>
   </si>
   <si>
     <t>sequence/run_869_samples/run_869_s_5_withindex_sequence.txt_TGAGGTT.fq.gz</t>
